--- a/MoranI example.xlsx
+++ b/MoranI example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20383"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andy\OneDrive - University College London\Teaching\Guest\Spatial-analysis-of-public-health-data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andy\OneDrive - University College London\Teaching\Guest\Spatial-analysis-of-public-health-data-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E373E05-9247-4B56-98E4-077946A9E0D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AEA43FA-BFCC-4137-B0D1-1207EB38AD8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25780" windowHeight="4630" xr2:uid="{10864EA3-0980-4079-A6AE-46B752D7E7B5}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="29010" windowHeight="17385" xr2:uid="{10864EA3-0980-4079-A6AE-46B752D7E7B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Moran I example" sheetId="3" r:id="rId1"/>
@@ -19,6 +19,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1307,15 +1318,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>82176</xdr:colOff>
+      <xdr:colOff>82175</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>164353</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>31376</xdr:colOff>
+      <xdr:colOff>78440</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>35858</xdr:rowOff>
+      <xdr:rowOff>22412</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1330,8 +1341,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11654117" y="2965824"/>
-          <a:ext cx="561788" cy="245034"/>
+          <a:off x="12711204" y="3593353"/>
+          <a:ext cx="601383" cy="239059"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1942,7 +1953,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>363070</xdr:colOff>
+      <xdr:colOff>382867</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>164353</xdr:rowOff>
     </xdr:to>
@@ -1962,8 +1973,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9182847" y="1253564"/>
-          <a:ext cx="2752164" cy="2272554"/>
+          <a:off x="10299700" y="1275976"/>
+          <a:ext cx="2712196" cy="2317377"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2398,18 +2409,18 @@
   <dimension ref="A8:AH33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
+      <selection activeCell="AE38" sqref="AE38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="4.36328125" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="4.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -2423,7 +2434,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
@@ -2437,7 +2448,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -2454,7 +2465,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="S12" s="1" t="s">
         <v>20</v>
       </c>
@@ -2462,7 +2473,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>1</v>
       </c>
@@ -2538,7 +2549,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -2568,11 +2579,11 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <f t="shared" ref="M14:R14" si="0">$T$14*M21</f>
+        <f>$T$14*M21</f>
         <v>10.0489</v>
       </c>
       <c r="N14">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="M14:R14" si="0">$T$14*N21</f>
         <v>6.8788999999999998</v>
       </c>
       <c r="O14">
@@ -2606,11 +2617,11 @@
         <v>1</v>
       </c>
       <c r="X14">
-        <f t="shared" ref="X14:AC14" si="1">B14*M14</f>
+        <f>B14*M14</f>
         <v>0</v>
       </c>
       <c r="Y14">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="X14:AC14" si="1">C14*N14</f>
         <v>6.8788999999999998</v>
       </c>
       <c r="Z14">
@@ -2640,7 +2651,7 @@
         <v>0.32556817049636649</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -2738,7 +2749,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -2830,7 +2841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -2922,7 +2933,7 @@
         <v>5.1789000000000005</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -3014,7 +3025,7 @@
         <v>5.1789000000000005</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -3106,7 +3117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="K20" s="1" t="s">
         <v>31</v>
       </c>
@@ -3140,7 +3151,7 @@
       </c>
       <c r="V20" s="1"/>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -3189,7 +3200,7 @@
         <v>42.480199999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>17</v>
       </c>
@@ -3197,12 +3208,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="AH24" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>1</v>
       </c>
@@ -3285,7 +3296,7 @@
         <v>0.43926358175416658</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -3385,7 +3396,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -3480,7 +3491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -3576,7 +3587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -3672,7 +3683,7 @@
         <v>1.2947250000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -3767,7 +3778,7 @@
         <v>1.7263000000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -3861,7 +3872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="L32" t="s">
         <v>10</v>
       </c>
@@ -3891,7 +3902,7 @@
         <v>43.493399999999994</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>16</v>
       </c>
